--- a/MOO_simulations/DP1000_25C_SwiftVoce_curve1/NDBR6/iteration/1/parameters.xlsx
+++ b/MOO_simulations/DP1000_25C_SwiftVoce_curve1/NDBR6/iteration/1/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8424238562583923</v>
+        <v>0.8516835570335388</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1734.94384765625</v>
+        <v>1766.857055664062</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08104556798934937</v>
+        <v>0.08845161646604538</v>
       </c>
     </row>
     <row r="5">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1020.428955078125</v>
+        <v>884.5816650390625</v>
       </c>
     </row>
     <row r="7">
